--- a/FPOO/Aula09/ex1.xlsx
+++ b/FPOO/Aula09/ex1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\Gustavo\SENAI2022\FPOO\Aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{137ADBD0-166E-40AB-AF80-0233D4010CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EACD0BE-F7EA-4963-9D86-24E22968B58D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE7E1E0D-95EE-4E00-983F-AECE60AEBE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Brown</t>
   </si>
@@ -63,13 +64,16 @@
   </si>
   <si>
     <t>Nome Sorteado</t>
+  </si>
+  <si>
+    <t>Nomes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +81,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -94,13 +131,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +196,100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Sorteio" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Elipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A122FF5F-4C36-4591-9C6B-D09A5E4AD410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="771525"/>
+          <a:ext cx="1143000" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Sortear</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,74 +589,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC428C94-9FC1-43C0-A8F4-3265BB143952}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" s="4" t="str">
+        <f ca="1">INDIRECT("B"&amp;RANDBETWEEN(3,12))</f>
+        <v>João</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="str">
-        <f ca="1">INDIRECT("A"&amp;RANDBETWEEN(1,10))</f>
-        <v>Símio</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D64C6E2-68CE-430C-8809-4787EE26205A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
